--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_190__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_190__Reeval_Sobol_Modell_1.3.xlsx
@@ -6121,19 +6121,19 @@
                   <c:v>75.24915313720703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.81105041503906</c:v>
+                  <c:v>60.81103515625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.30974578857422</c:v>
+                  <c:v>75.30973815917969</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>77.039794921875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.44262313842773</c:v>
+                  <c:v>51.442626953125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.5769157409668</c:v>
+                  <c:v>60.57691955566406</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.32809448242188</c:v>
@@ -6148,16 +6148,16 @@
                   <c:v>80.79779815673828</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.68280792236328</c:v>
+                  <c:v>68.68279266357422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64.85131072998047</c:v>
+                  <c:v>64.851318359375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.30915069580078</c:v>
+                  <c:v>89.30915832519531</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.49160766601562</c:v>
+                  <c:v>29.49159622192383</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>93.48229217529297</c:v>
@@ -6166,37 +6166,37 @@
                   <c:v>70.67767333984375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.54398345947266</c:v>
+                  <c:v>79.54399108886719</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.55169296264648</c:v>
+                  <c:v>43.55170440673828</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>84.02375030517578</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>77.5072021484375</c:v>
+                  <c:v>77.50720977783203</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.82205581665039</c:v>
+                  <c:v>50.82205963134766</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.27099609375</c:v>
+                  <c:v>28.27098846435547</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>63.30207443237305</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45.7432746887207</c:v>
+                  <c:v>45.74326324462891</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>82.89511108398438</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61.52688598632812</c:v>
+                  <c:v>61.52688980102539</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>77.00053405761719</c:v>
+                  <c:v>77.00051879882812</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>79.07577514648438</c:v>
@@ -6229,28 +6229,28 @@
                   <c:v>80.52552795410156</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78.36528015136719</c:v>
+                  <c:v>78.36528778076172</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75.80995941162109</c:v>
+                  <c:v>75.80995178222656</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48.14058685302734</c:v>
+                  <c:v>48.14057922363281</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>75.44538116455078</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>88.91073608398438</c:v>
+                  <c:v>88.91074371337891</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>85.20872497558594</c:v>
+                  <c:v>85.20873260498047</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.84785461425781</c:v>
+                  <c:v>51.84785842895508</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>66.34983825683594</c:v>
+                  <c:v>66.34984588623047</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>86.51901245117188</c:v>
@@ -6259,22 +6259,22 @@
                   <c:v>90.77429962158203</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45.21885299682617</c:v>
+                  <c:v>45.21884918212891</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>76.05361175537109</c:v>
+                  <c:v>76.05362701416016</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38.83503341674805</c:v>
+                  <c:v>38.83502960205078</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>60.03377914428711</c:v>
+                  <c:v>60.03378677368164</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>93.60898590087891</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>92.76683807373047</c:v>
+                  <c:v>92.76683044433594</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>79.10614776611328</c:v>
@@ -6286,16 +6286,16 @@
                   <c:v>68.23945617675781</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56.56777572631836</c:v>
+                  <c:v>56.56777954101562</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>68.28738403320312</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>76.44671630859375</c:v>
+                  <c:v>76.44672393798828</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>54.72200393676758</c:v>
+                  <c:v>54.72200775146484</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>91.17817687988281</c:v>
@@ -6310,13 +6310,13 @@
                   <c:v>74.13768768310547</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>40.9511833190918</c:v>
+                  <c:v>40.95119476318359</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>75.70177459716797</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>94.67964172363281</c:v>
+                  <c:v>94.67964935302734</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>84.31941986083984</c:v>
@@ -6325,13 +6325,13 @@
                   <c:v>81.57305145263672</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.51335906982422</c:v>
+                  <c:v>81.51337432861328</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>58.91718292236328</c:v>
+                  <c:v>58.91717910766602</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>78.32823181152344</c:v>
+                  <c:v>78.32822418212891</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>24.75383377075195</c:v>
@@ -6340,37 +6340,37 @@
                   <c:v>84.43625640869141</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>64.30338287353516</c:v>
+                  <c:v>64.30339050292969</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>87.34908294677734</c:v>
+                  <c:v>87.34907531738281</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>14.80659198760986</c:v>
+                  <c:v>14.80658435821533</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>52.43130874633789</c:v>
+                  <c:v>52.43129730224609</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>40.5274772644043</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>56.42266082763672</c:v>
+                  <c:v>56.42266845703125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>62.35735702514648</c:v>
+                  <c:v>62.35735321044922</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>79.00253295898438</c:v>
+                  <c:v>79.00251770019531</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>92.24188995361328</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>79.45704650878906</c:v>
+                  <c:v>79.45703125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>20.2859935760498</c:v>
+                  <c:v>20.2859992980957</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>23.71999740600586</c:v>
@@ -6388,7 +6388,7 @@
                   <c:v>55.92278671264648</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>79.46573638916016</c:v>
+                  <c:v>79.46575164794922</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>82.05568695068359</c:v>
@@ -6397,7 +6397,7 @@
                   <c:v>82.17475128173828</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>49.23738861083984</c:v>
+                  <c:v>49.23740005493164</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>73.314208984375</c:v>
@@ -6409,7 +6409,7 @@
                   <c:v>80.65880584716797</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28.13413238525391</c:v>
+                  <c:v>28.13412666320801</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>83.99402618408203</c:v>
@@ -7151,7 +7151,7 @@
         <v>63.5721</v>
       </c>
       <c r="F3">
-        <v>60.81105041503906</v>
+        <v>60.81103515625</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -7183,7 +7183,7 @@
         <v>72.6374</v>
       </c>
       <c r="F4">
-        <v>75.30974578857422</v>
+        <v>75.30973815917969</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -7247,7 +7247,7 @@
         <v>48.7815</v>
       </c>
       <c r="F6">
-        <v>51.44262313842773</v>
+        <v>51.442626953125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>68.6634</v>
       </c>
       <c r="F7">
-        <v>60.5769157409668</v>
+        <v>60.57691955566406</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -7391,7 +7391,7 @@
         <v>73.68899999999999</v>
       </c>
       <c r="F12">
-        <v>68.68280792236328</v>
+        <v>68.68279266357422</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>74.6092</v>
       </c>
       <c r="F13">
-        <v>64.85131072998047</v>
+        <v>64.851318359375</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>84.10420000000001</v>
       </c>
       <c r="F14">
-        <v>89.30915069580078</v>
+        <v>89.30915832519531</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>38.9871</v>
       </c>
       <c r="F15">
-        <v>29.49160766601562</v>
+        <v>29.49159622192383</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7511,7 +7511,7 @@
         <v>78.5603</v>
       </c>
       <c r="F18">
-        <v>79.54398345947266</v>
+        <v>79.54399108886719</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>43.55169296264648</v>
+        <v>43.55170440673828</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>76.9473</v>
       </c>
       <c r="F21">
-        <v>77.5072021484375</v>
+        <v>77.50720977783203</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>54.2093</v>
       </c>
       <c r="F22">
-        <v>50.82205581665039</v>
+        <v>50.82205963134766</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>28.27099609375</v>
+        <v>28.27098846435547</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>43.7599</v>
       </c>
       <c r="F25">
-        <v>45.7432746887207</v>
+        <v>45.74326324462891</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>63.4677</v>
       </c>
       <c r="F27">
-        <v>61.52688598632812</v>
+        <v>61.52688980102539</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>62.4651</v>
       </c>
       <c r="F28">
-        <v>77.00053405761719</v>
+        <v>77.00051879882812</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>74.9051</v>
       </c>
       <c r="F39">
-        <v>78.36528015136719</v>
+        <v>78.36528778076172</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>75.6026</v>
       </c>
       <c r="F40">
-        <v>75.80995941162109</v>
+        <v>75.80995178222656</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>38.9776</v>
       </c>
       <c r="F41">
-        <v>48.14058685302734</v>
+        <v>48.14057922363281</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>86.46259999999999</v>
       </c>
       <c r="F43">
-        <v>88.91073608398438</v>
+        <v>88.91074371337891</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>85.20872497558594</v>
+        <v>85.20873260498047</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>39.188</v>
       </c>
       <c r="F45">
-        <v>51.84785461425781</v>
+        <v>51.84785842895508</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>72.2573</v>
       </c>
       <c r="F46">
-        <v>66.34983825683594</v>
+        <v>66.34984588623047</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>54.0966</v>
       </c>
       <c r="F49">
-        <v>45.21885299682617</v>
+        <v>45.21884918212891</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>78.6082</v>
       </c>
       <c r="F50">
-        <v>76.05361175537109</v>
+        <v>76.05362701416016</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>23.918</v>
       </c>
       <c r="F51">
-        <v>38.83503341674805</v>
+        <v>38.83502960205078</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>61.0616</v>
       </c>
       <c r="F52">
-        <v>60.03377914428711</v>
+        <v>60.03378677368164</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.5389</v>
       </c>
       <c r="F54">
-        <v>92.76683807373047</v>
+        <v>92.76683044433594</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>56.56777572631836</v>
+        <v>56.56777954101562</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>76.94629999999999</v>
       </c>
       <c r="F60">
-        <v>76.44671630859375</v>
+        <v>76.44672393798828</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>87.4046</v>
       </c>
       <c r="F61">
-        <v>54.72200393676758</v>
+        <v>54.72200775146484</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>38.8903</v>
       </c>
       <c r="F66">
-        <v>40.9511833190918</v>
+        <v>40.95119476318359</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>89.6302</v>
       </c>
       <c r="F68">
-        <v>94.67964172363281</v>
+        <v>94.67964935302734</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>83.73390000000001</v>
       </c>
       <c r="F71">
-        <v>81.51335906982422</v>
+        <v>81.51337432861328</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>61.5791</v>
       </c>
       <c r="F72">
-        <v>58.91718292236328</v>
+        <v>58.91717910766602</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>81.6987</v>
       </c>
       <c r="F73">
-        <v>78.32823181152344</v>
+        <v>78.32822418212891</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>71.3847</v>
       </c>
       <c r="F76">
-        <v>64.30338287353516</v>
+        <v>64.30339050292969</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>93.0134</v>
       </c>
       <c r="F77">
-        <v>87.34908294677734</v>
+        <v>87.34907531738281</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>14.80659198760986</v>
+        <v>14.80658435821533</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>52.43130874633789</v>
+        <v>52.43129730224609</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>55.7459</v>
       </c>
       <c r="F81">
-        <v>56.42266082763672</v>
+        <v>56.42266845703125</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>58.0646</v>
       </c>
       <c r="F82">
-        <v>62.35735702514648</v>
+        <v>62.35735321044922</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>74.2764</v>
       </c>
       <c r="F83">
-        <v>79.00253295898438</v>
+        <v>79.00251770019531</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>78.6379</v>
       </c>
       <c r="F85">
-        <v>79.45704650878906</v>
+        <v>79.45703125</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>20.2859935760498</v>
+        <v>20.2859992980957</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>81.0548</v>
       </c>
       <c r="F92">
-        <v>79.46573638916016</v>
+        <v>79.46575164794922</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.9895</v>
       </c>
       <c r="F95">
-        <v>49.23738861083984</v>
+        <v>49.23740005493164</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>28.13413238525391</v>
+        <v>28.13412666320801</v>
       </c>
     </row>
     <row r="100" spans="1:6">
